--- a/simulation_data/one_step_algorithm/1s_error_level_4_percent_water_40.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_4_percent_water_40.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.12397392569672</v>
+        <v>89.88215250386197</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9804387326621504</v>
+        <v>0.7934035432983716</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.00354256116825</v>
+        <v>88.96958919716772</v>
       </c>
       <c r="D3" t="n">
-        <v>1.014368942036677</v>
+        <v>0.9261365458869979</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.98567266176873</v>
+        <v>88.20676872817005</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9824518323151429</v>
+        <v>0.9654002609105687</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.12514711789395</v>
+        <v>86.9123900123857</v>
       </c>
       <c r="D5" t="n">
-        <v>1.019375000111926</v>
+        <v>1.097556286157399</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.68501939730726</v>
+        <v>85.93302406724713</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9693078162489978</v>
+        <v>0.9258959519029564</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.98233895051213</v>
+        <v>85.04467239260113</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8517944225532358</v>
+        <v>0.9611169198204553</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.96436951958849</v>
+        <v>83.77445445263331</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9799012144605589</v>
+        <v>0.9530421423367895</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.08641577266272</v>
+        <v>82.92897828677589</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8638443590298349</v>
+        <v>0.9147014728390884</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.07070388374936</v>
+        <v>81.9062289978261</v>
       </c>
       <c r="D10" t="n">
-        <v>1.045615112007905</v>
+        <v>0.8996831826587793</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.96203442440493</v>
+        <v>80.98512581186439</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9388615985836954</v>
+        <v>1.070670481872781</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.96772142548633</v>
+        <v>79.9844803942707</v>
       </c>
       <c r="D12" t="n">
-        <v>1.137731027941651</v>
+        <v>1.02851586145409</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.89466407029589</v>
+        <v>79.01968921152593</v>
       </c>
       <c r="D13" t="n">
-        <v>1.025784515186329</v>
+        <v>1.089230244453489</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.06029294638797</v>
+        <v>77.86255010082127</v>
       </c>
       <c r="D14" t="n">
-        <v>1.110771025830562</v>
+        <v>1.08985220761759</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.00575162709923</v>
+        <v>76.90210981664049</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9262163426727907</v>
+        <v>1.004267365736732</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.98857659753502</v>
+        <v>76.02226708338024</v>
       </c>
       <c r="D16" t="n">
-        <v>1.086685761856214</v>
+        <v>1.126858751473103</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.94836364964067</v>
+        <v>74.88863822041424</v>
       </c>
       <c r="D17" t="n">
-        <v>1.113650706263418</v>
+        <v>1.051983755334517</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.88846122914734</v>
+        <v>74.04471298294322</v>
       </c>
       <c r="D18" t="n">
-        <v>1.263625683312538</v>
+        <v>1.202119592924898</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.01029486379595</v>
+        <v>73.03485240078734</v>
       </c>
       <c r="D19" t="n">
-        <v>1.183459839111831</v>
+        <v>1.124725134793529</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.92912322221933</v>
+        <v>71.93010715245627</v>
       </c>
       <c r="D20" t="n">
-        <v>1.069580524409474</v>
+        <v>1.131736246005584</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.99737743577261</v>
+        <v>71.02041122430165</v>
       </c>
       <c r="D21" t="n">
-        <v>1.141401634555611</v>
+        <v>1.147437786978517</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.22225301135725</v>
+        <v>69.79009823380964</v>
       </c>
       <c r="D22" t="n">
-        <v>1.13899426596858</v>
+        <v>1.214490246146147</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.79174496197744</v>
+        <v>68.88790713200113</v>
       </c>
       <c r="D23" t="n">
-        <v>1.061732469167833</v>
+        <v>1.301856135136911</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.84930772737054</v>
+        <v>68.0621199998056</v>
       </c>
       <c r="D24" t="n">
-        <v>1.161876651741963</v>
+        <v>1.168874777185835</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.00283536481311</v>
+        <v>66.8925935111867</v>
       </c>
       <c r="D25" t="n">
-        <v>1.17732836481881</v>
+        <v>1.043301806380079</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.87855091950226</v>
+        <v>66.16420890860689</v>
       </c>
       <c r="D26" t="n">
-        <v>1.035188752072199</v>
+        <v>1.261542745066331</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.03624041230118</v>
+        <v>65.18204286486846</v>
       </c>
       <c r="D27" t="n">
-        <v>1.27400617102406</v>
+        <v>1.16634694286556</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.89214851703563</v>
+        <v>64.15147988206408</v>
       </c>
       <c r="D28" t="n">
-        <v>1.125903142348141</v>
+        <v>1.164823411816073</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>63.02651115235384</v>
+        <v>63.26870825338113</v>
       </c>
       <c r="D29" t="n">
-        <v>1.13025061705209</v>
+        <v>1.122736827773679</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.99046645139395</v>
+        <v>62.01875987246559</v>
       </c>
       <c r="D30" t="n">
-        <v>1.30387772906509</v>
+        <v>1.214507630469536</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.04584911199371</v>
+        <v>60.84547078259207</v>
       </c>
       <c r="D31" t="n">
-        <v>1.204978527660596</v>
+        <v>1.287237490054103</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.02417449867068</v>
+        <v>59.96887270720855</v>
       </c>
       <c r="D32" t="n">
-        <v>1.093225916276731</v>
+        <v>1.290544394657577</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.93840195276718</v>
+        <v>58.88106499497155</v>
       </c>
       <c r="D33" t="n">
-        <v>1.232395179512306</v>
+        <v>1.461078700554429</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.86392254749983</v>
+        <v>58.08936733897797</v>
       </c>
       <c r="D34" t="n">
-        <v>1.33584739132038</v>
+        <v>1.336476341806869</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.97171309619092</v>
+        <v>56.95728060053359</v>
       </c>
       <c r="D35" t="n">
-        <v>1.259557579116527</v>
+        <v>1.366928156838848</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.07093171966793</v>
+        <v>55.78708139877963</v>
       </c>
       <c r="D36" t="n">
-        <v>1.248485597154143</v>
+        <v>1.269920136550764</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.88553719790079</v>
+        <v>54.99340367927039</v>
       </c>
       <c r="D37" t="n">
-        <v>1.306390074283708</v>
+        <v>1.14436625267533</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.91590591263146</v>
+        <v>53.95885151925748</v>
       </c>
       <c r="D38" t="n">
-        <v>1.230698520982259</v>
+        <v>1.3817360410352</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.95613486445374</v>
+        <v>53.00189682695667</v>
       </c>
       <c r="D39" t="n">
-        <v>1.348829209874466</v>
+        <v>1.435994439184932</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.00705234952608</v>
+        <v>52.17791242263223</v>
       </c>
       <c r="D40" t="n">
-        <v>1.427727724649724</v>
+        <v>1.367257562182555</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.06872763859425</v>
+        <v>51.08519250963536</v>
       </c>
       <c r="D41" t="n">
-        <v>1.267671914558962</v>
+        <v>1.460592987126511</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.1892924349947</v>
+        <v>50.13685210900974</v>
       </c>
       <c r="D42" t="n">
-        <v>1.335335329859388</v>
+        <v>1.252522211729307</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.17066137005064</v>
+        <v>49.25331753649485</v>
       </c>
       <c r="D43" t="n">
-        <v>1.296295973881925</v>
+        <v>1.350806612838764</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.78299786431808</v>
+        <v>48.08968244828994</v>
       </c>
       <c r="D44" t="n">
-        <v>1.311552126145897</v>
+        <v>1.326844776985741</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.96018061347655</v>
+        <v>47.016852524673</v>
       </c>
       <c r="D45" t="n">
-        <v>1.501250965068687</v>
+        <v>1.311585642531338</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.83840566716442</v>
+        <v>45.82266654410615</v>
       </c>
       <c r="D46" t="n">
-        <v>1.3777355991137</v>
+        <v>1.34594719549445</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.7272573852939</v>
+        <v>44.48995541029088</v>
       </c>
       <c r="D47" t="n">
-        <v>1.353055983259863</v>
+        <v>1.306487251977772</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.92262534612279</v>
+        <v>44.36811670850709</v>
       </c>
       <c r="D48" t="n">
-        <v>1.133294053873342</v>
+        <v>1.412779180496734</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.85261078879344</v>
+        <v>42.92258171876481</v>
       </c>
       <c r="D49" t="n">
-        <v>1.383684237089868</v>
+        <v>1.502797824954674</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.82098785565069</v>
+        <v>41.95461607458667</v>
       </c>
       <c r="D50" t="n">
-        <v>1.398403103600212</v>
+        <v>1.459248237854384</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.17387397084941</v>
+        <v>40.94910602258544</v>
       </c>
       <c r="D51" t="n">
-        <v>1.248983878163843</v>
+        <v>1.472107017345807</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.13776784580459</v>
+        <v>40.02072523255652</v>
       </c>
       <c r="D52" t="n">
-        <v>1.439991514454539</v>
+        <v>1.486472262606914</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.96489754799939</v>
+        <v>38.99333820198761</v>
       </c>
       <c r="D53" t="n">
-        <v>1.595475318750657</v>
+        <v>1.548424926618073</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.14899609330151</v>
+        <v>37.96075687123552</v>
       </c>
       <c r="D54" t="n">
-        <v>1.39498099167655</v>
+        <v>1.478634394402726</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.00944719380428</v>
+        <v>37.012607188966</v>
       </c>
       <c r="D55" t="n">
-        <v>1.48527940336111</v>
+        <v>1.400789030535188</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.95716855390131</v>
+        <v>35.85984416727637</v>
       </c>
       <c r="D56" t="n">
-        <v>1.466076290236519</v>
+        <v>1.360735887766311</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.91981499942752</v>
+        <v>34.90982382853874</v>
       </c>
       <c r="D57" t="n">
-        <v>1.255444943870715</v>
+        <v>1.371242405790862</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.97371454604529</v>
+        <v>33.72324572024503</v>
       </c>
       <c r="D58" t="n">
-        <v>1.588556861813192</v>
+        <v>1.51085622528321</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.96722326070686</v>
+        <v>32.91131525139075</v>
       </c>
       <c r="D59" t="n">
-        <v>1.558462251151087</v>
+        <v>1.52801254273241</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.04100299699781</v>
+        <v>31.80626652277935</v>
       </c>
       <c r="D60" t="n">
-        <v>1.4275270780168</v>
+        <v>1.77475254159825</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.71434754154385</v>
+        <v>31.01118686095495</v>
       </c>
       <c r="D61" t="n">
-        <v>1.663475754583813</v>
+        <v>1.482018479631288</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.85299057148625</v>
+        <v>30.08499595851108</v>
       </c>
       <c r="D62" t="n">
-        <v>1.625923757813604</v>
+        <v>1.584845597421501</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.12698286711463</v>
+        <v>28.91647494491177</v>
       </c>
       <c r="D63" t="n">
-        <v>1.682117588207139</v>
+        <v>1.443298306572112</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.01827238480858</v>
+        <v>28.09970853113341</v>
       </c>
       <c r="D64" t="n">
-        <v>1.546607810935924</v>
+        <v>1.624182878151698</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.82018100448738</v>
+        <v>27.30656132268691</v>
       </c>
       <c r="D65" t="n">
-        <v>1.325210633521821</v>
+        <v>1.594818687885786</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.0470077628242</v>
+        <v>26.32578370735721</v>
       </c>
       <c r="D66" t="n">
-        <v>1.640621391308003</v>
+        <v>1.425166776876116</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.06281392680692</v>
+        <v>24.78954175174953</v>
       </c>
       <c r="D67" t="n">
-        <v>1.637975766016273</v>
+        <v>1.681800702453178</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.87028924818971</v>
+        <v>24.19037979076892</v>
       </c>
       <c r="D68" t="n">
-        <v>1.671119838553575</v>
+        <v>1.710271734710776</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.14146624178479</v>
+        <v>22.74900182532909</v>
       </c>
       <c r="D69" t="n">
-        <v>1.548086744201804</v>
+        <v>1.576623969974532</v>
       </c>
     </row>
   </sheetData>
